--- a/checklistGenerator/xlsx/Rampa.xlsx
+++ b/checklistGenerator/xlsx/Rampa.xlsx
@@ -170,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,6 +205,13 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Cambria"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -381,7 +388,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -408,9 +415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>839880</xdr:colOff>
+      <xdr:colOff>839520</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -424,7 +431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6269760" y="0"/>
-          <a:ext cx="2851200" cy="1245600"/>
+          <a:ext cx="2850840" cy="1245240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -554,7 +561,7 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:F9"/>
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.70703125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1058,7 +1065,7 @@
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
     </row>
-    <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="23" t="s">
         <v>41</v>
       </c>
@@ -1070,7 +1077,7 @@
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="24" t="s">
         <v>41</v>
       </c>
